--- a/Gestion/Tabla de actividades.xlsx
+++ b/Gestion/Tabla de actividades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>actividades</t>
   </si>
@@ -151,7 +151,7 @@
     <t>Analisis de competencia</t>
   </si>
   <si>
-    <t>Nicolas y sofia</t>
+    <t>Nicolas y Francisco</t>
   </si>
   <si>
     <t>Mapa web</t>
@@ -166,10 +166,13 @@
     <t>HTML</t>
   </si>
   <si>
-    <t>Sofia y Francisco</t>
+    <t>Sofia, Francisco y Nicolas</t>
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Sofia, Francisco y NIcolas</t>
   </si>
   <si>
     <t>Programacion</t>
@@ -934,7 +937,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -948,12 +951,12 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -961,7 +964,7 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="5"/>
@@ -969,7 +972,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="5"/>
@@ -977,7 +980,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="5"/>
@@ -985,7 +988,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="5"/>
@@ -993,7 +996,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="5"/>
